--- a/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. I would now like to recognize myself for an opening statement.    The Western Hemisphere is home to an abundance of natural resources, including nearly a third of the world's oil reserves. With their own U.S. supplies of oil, natural gas and shale gas resources, the capacity to export liquified and compressed natural gas and the option of offshore drilling in the Atlantic, we have many reasons to deepen our energy engagement in the region.    Such action would spur economic growth and energy security while reducing energy costs, which will go a long ways toward building a more stable and prosperous hemisphere. Currently, our top crude oil imports come from Canada and Mexico.    Yet, the Obama administration's policies, while seeking to appease dictators in Cuba, have refused to take common sense approaches with Canada and Mexico.    The Keystone Pipeline decision remains mired in White House delaying tactics and State Department bureaucracy while the U.S. continues to unfairly prohibit crude oil exports to Mexico, and it is unlike our treatment toward Canada.    So earlier this year, President Obama used just the third veto of his presidency to stop House- and Senate-passed authorizing legislation to finally begin construction of the pipeline, even saying at the time that the pipeline wouldn't actually create that many jobs for the U.S.    Approval of the Keystone XL Pipeline would not only inject over $7 billion in private investment into our economy, it would also create thousands of good-paying jobs for the American people. Energy security is a segue to job creation.    Keystone XL also represents an important piece of ensuring our national security interest. Reducing our dependence on energy from unstable parts of the world and from regimes hostile to the U.S. interests has long been a crucial element in protecting our broader national security interests.    Canada and the United States enjoy a very close bilateral relationship with robust commercial ties. Our two countries enjoy the world's largest bilateral trade relationship, translating into over $1 billion crossing our shared northern border each day.    Moreover, Canada is the world's fifth largest petroleum producer and its reserves are believed to be third largest in the world only after those of Saudi Arabia and Venezuela.    Canada is already the United States' largest supplier of energy, and approval of the Keystone Pipeline from Canada to refineries in the Midwest and the Gulf Coast would translate into approximately 1 million additional barrels of oil per day, along with tens of thousands of high quality good-paying U.S. jobs.    It is telling when you remember that President Obama managed to force Obamacare onto the America people in just over 400 days, yet it has been over 2,000 days since the application for Keystone XL Pipeline from Canada was submitted to the State Department, and the administration continues to stall on approving or disapproving the project.    On this question I believe our treatment of our neighbor to the north, one of our best and largest trading partners and on so many other issues, is shameful.    So because of this, as chairman of the Subcommittee on the Western Hemisphere of the House Foreign Affairs Committee, I convened the first meeting of this panel earlier this year to host senior leaders from several Caribbean countries in conjunction with the administration's Caribbean Energy Security Summit.    These CARICOM countries suffer from some of the most expensive energy prices in the world, hampering the growth of their island economies.    Isn't it time that we figure out innovative and cost-effective ways to export our recently discovered energy abundance to help these small countries once and for all get off their dependence on subsidized energy from Venezuela?    Not only does this make economic sense, but it also might actually help the U.S. geopolitically when the votes are cast at the U.N. and the OAS.    Today, the Western Hemisphere has some amazing opportunities for deeper U.S. engagement with Mexico's energy sector reforms, energy revolutions in Argentina, Brazil, Colombia, Peru, offshore exploration activities by Caribbean countries, and potentially new resources in the Arctic.    In Mexico, the promise of opening Pemex to foreign investment will not only potentially benefit U.S. companies but will go a long way in improving the efficiency of Pemex while stabilizing, indeed, increasing Mexico's stalled oil production.    This will lead to a more prosperous Mexico and that, unquestionably, is in the national interest of the United States.    The imminent approval of the United States Commerce Department to allow Mexico to swap up to 100,000 barrels of heavy crude for similar amounts of lighter U.S. oil could yet be a milestone toward eventual loosening of the four-decade-old ban on U.S. oil exports. This is truly a win-win.    In South America, despite simmering domestic political challenges with the vast offshore pre-salt oil reserves in Brazil and with Argentina sitting on the world's second largest shale gas reserves in the Vaca Meurta, opportunities for U.S. engagement abound.    The discoveries made in the pre-salt are among the world's most important in the past decade as the pre-salt province comprises large accumulations of excellent quality high commercial value light oil.    With elections set for this fall, it remains to be seen what the investment climate will look like in a post-Kirchner regime in Argentina. The world will be watching.    This hearing will explore how we can grow and enhance our existing partnerships with countries in this hemisphere, and preserve U.S. energy security, increase investment opportunities for U.S. companies and high-paying jobs for the American people.    Challenges for U.S. business investment remain in the region, but it is my hope that through hearings like this we will determine ways in which the U.S. can better engage on energy issues with our neighbors in the hemisphere.    Just returning from the Summit of the Americas, I really started thinking about hemispheric energy independence. If we think about some of the things I have talked about, whether it is Keystone Pipeline oil to U.S. refineries, whether it is the abundance of natural gas that we are finding in the United States, whether it is shale oil in the Bakken and our ability to extract that, possible energy exports of oil to the Caribbean nations limiting or effectively ending Petrocaribe's influence in the region, natural gas exports to Mexico, natural gas LNG and CNG through Central America and all throughout the hemisphere, working with our partners in Colombia and allies in Colombia and Brazil, expansions of possibly energy in Argentina, and what Peru and Chile are wanting to do, just so many different things that could happen, especially if political winds shift in Venezuela and that Venezuelan oil becomes more productive--oil fields become more productive and opportunity to utilize that oil in this hemisphere.    If you take every piece of that equation that I talked about--and there are others, I am sure, that we will hear from the panelists today--if you factor all those in to the Western Hemisphere and think about it in terms of hemispheric energy independence, then we negate a lot of the geopolitical concerns that are happening in other parts of the world.    So I look forward to today's hearing as we delve into this and I now turn to Ranking Member Sires for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you to our witnesses for being here this afternoon.    Today's hearing looks at both the opportunities and challenges enhancing our energy cooperation within the Western Hemisphere.    I believe integrating our energy interests in the region have been ignored for far too long. That is why I am encouraged to see the administration's recent efforts to deepen energy cooperation within the hemisphere.    The administration hosted the White House Caribbean Energy Security Summit in January and launched the Caribbean Energy Security Initiative to facilitate an energy transition for the islands that have been far too dependent on Venezuela's shaky energy sector for their needs.    While we continue to focus energy policy on the Middle East, taking a look at our own back yard shows the opportunity that exists right next door.    We get about half of our oil and petroleum from the Western Hemisphere, half of which is from Canada. Canada is the single largest foreign supplier of petroleum and natural gas to the United States, and after Saudi Arabia, Mexico is the United States' third largest supplier of petroleum.    Venezuela is home to 88 percent of the region's proven oil reserves. In regards to nontraditional sources of energy, Brazil is the world's second larger producer of ethanol after the United States.    In countries like Venezuela, Bolivia, Ecuador and Argentina, the troubling trends of the nationalization of private industry has become the norm rather than the exception.    Moreover, the region's trade relationships and increasing presence of anti-democratic actors such as Russia, Iran and particularly China, whose self-interests are counter to the strategic concerns of the United States, should not be taken lightly.    In January, China pledged $250 billion in investments in Latin America over the next 10 years, seeking to boost their influence in the resource-rich region.    The United States cannot fall behind, as the Western Hemisphere plays a critical role in our energy security. Specifically, it is clear that maintaining and strengthening our energy relationship with Canada and Mexico is in the national interests of the United States.    That is why I believe the proposed Keystone XL Pipeline and the Transboundary Hydrocarbon Agreement with Mexico are in the national interests of the United States. I am sensitive to the environment and the concerns associated with the development of the Keystone Pipeline project.    But the conversation has stagnated. The concerned parties need to avoid further delays of a constructive dialogue and chart a path forward.    This is true especially in light of declining foreign oil supplies from Mexico and Venezuela. Our national security requires that energy policy be a central component of our foreign policy.    Furthermore, we should build upon and expand our energy diplomacy efforts and mitigate the Caribbean's dependence on subsidized Venezuela oil and support the economic growth of the region in ways that are both relevant and practical to the needs of everyday people.    No one single project or initiative is a cure-all for energy security needs, and no proposal will satisfy everyone's needs or alleviate every doubt. But we must continue to work with our neighbors to develop a beneficial energy policy for the region.    I look forward to the hearing--to hearing from our panelists on how we can address these critical issues.    Thank you.</t>
   </si>
   <si>
@@ -79,36 +73,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Knapp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knapp. Good afternoon, Chairman Duncan, Ranking Member Sires and esteemed member of the House Foreign Affairs' Subcommittee on the Western Hemisphere.    It is my great pleasure and high honor to be here today and I thank each of you both for your continued dedicated service as Members of Congress and for the opportunity to appear before you today.    For the record, I am James H. Knapp, professor in the Department of Earth and Ocean Sciences in the School of the Earth, Ocean and Environment at the University of South Carolina, and I currently serve as chair of the faculty senate at the University of South Carolina, Columbia campus. I will be summarizing my written testimony in these opening comments.    I am also taking the liberty to introduce some graphics here which, hopefully, will supplement the comments I will make.    By way of background, I was born and raised in California and have lived in six and travelled to 49 states and through my profession as an earth scientist have worked in or visited more than 40 countries, many of those in the Western Hemisphere.    I hold a Bachelor of Science degree with distinction in geological sciences from Stanford University and a Ph.D. in geology from the Massachusetts Institute of Technology, and from 1988 to 1991 I worked with Shell Oil where I participated directly in oil and gas exploration in the Gulf of Mexico.    For more than 20 years since then, my research team and I have carried out both fundamental and applied research in earth sciences including the design, acquisition, processing and interpretation of seismic surveys both onshore and offshore and many of my former students are now gainfully employed in the energy industry.    Access to energy is and will for future generations continue to be an essential foundation upon which modern society operates.    On a personal level, one need only experience a prolonged power outage to be poignantly reminded of the ways in which we on a daily basis depend on energy to illuminate, heat and cool our homes and businesses, preserve and prepare our food, and of critical importance in this digital age, power our numerous IT devices.    As many have come to appreciate in recent years, we simply cannot turn off the power switch overnight regardless of the perceived societal imperatives.    Safe, efficient and environmentally responsible development of energy resources is critical for the long-term energy security of this country and the Western Hemisphere.    In all of the above energy strategy, which includes continued exploration for and development of conventional and unconventional hydrocarbon resources, as we develop economically viable technologies for alternative and renewable energy resources is clearly the best path forward. Much of the future promise of renewable and alternative energy sources awaits the capacity for efficient storage through research and development.    The title of this hearing is most appropriate. As many will know, for the better part of the last decade we have witnessed a global energy revolution led by the United States, which few if any could have predicted.    Harnessing the oil and gas potential of shale reservoirs through American technological innovation has practically doubled the estimated volume of undiscovered technically recoverable oil resources in the United States.    The most recent estimates from the energy information administration for proven crude oil reserves in the Western Hemisphere amount to approximately 550 billion barrels of oil equivalent with well more than half of those in Venezuela.    The countries of the Western Hemisphere combined represent approximately one-third of the proven global reserves. Clearly, the major players in terms of conventional production have been and will continue to be the United States and Canada with growing contributions from Brazil, Mexico and Argentina.    As seen in the figure on the screen, shale oil and shale gas potential is abundant throughout the Western Hemisphere from the North Slope of Alaska to the tip of Tierra del Fuego, and the offshore potential of such unconventional resources is yet to be evaluated in any significant way. Note that these are all onshore shale gas and shale oil plays.    The presence of this resource potential represents an opportunity to engage our hemispheric neighbors through both the public and the private sector.    Methane hydrates, or deposits of natural gas frozen into sedimentary deposits, represent a significant future resource potential.    Recent estimates from the Bureau of Ocean Energy Management suggest that more than 20,000 trillion cubic feet of gas, or as much as 35 times the inventory of conventional gas resources on the entire U.S. outer continental shelf, are present on the Atlantic margin alone, as shown in this figure.    A similar reserve potential has been estimated for the U.S. waters of the Gulf of Mexico. We need look no further than the Atlantic shelf of the U.S. for other energy opportunities.    The Bureau of Energy--Ocean Energy Management is charged with periodic evaluation of the energy and mineral resource potential of the outer continental shelf.    Their most recent estimate in 2011 of undiscovered technically recoverable resources for the Atlantic OCS was 8.87 billion barrels of oil equivalent revised only a year ago up to 11.4 billion barrels of oil equivalent without any new data.    This is simply reevaluation of the existing data. Too often such reserve estimates are dismissed as unworthy of the investment required to produce them or the anticipated environmental disruption involved.    However, such volumes represent as much as a tenth of the combined estimated petroleum resource base of the United States.    In addition, as much as 80 percent of the Atlantic OCS territory currently under consideration in the draft proposed plan of the Bureau of Ocean Energy Management has never been evaluated with commercial seismic surveys. Only the shelf portions of the area under consideration have ever been surveyed.    So if we compare this with the entire remainder of the Atlantic Basin, essentially the entire Atlantic Basin is currently under exploration for oil and gas in offshore areas with the conspicuous exception of the Atlantic Margin and the eastern Gulf of Mexico of the United States.    In conclusion, I believe the U.S. can and must play a leading role in promoting energy security for our own citizens and for the hemisphere at large. In most cases, the biggest opportunities appear to be here close to home.    New opportunities exist to bring U.S. deepwater technology and experience to Mexico and the Gulf of Mexico. Additional steps should be taken to deepen our engagement with Canada by completing the Keystone XL Pipeline, bringing crude petroleum to excess refining capacity in the Gulf Coast region and removing the ban on crude oil exports from the U.S. helping to bring reliable energy to our neighbors from a stable economic and political base.    I yield the rest of my time. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Dr. Knapp, thank you, and I felt like I was in a classroom there with a slide presentation. But very informative.    Mr. Book.</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Book. Thank you, Chairman Duncan, Ranking Member Sires and distinguished members of this committee.    Good afternoon, and I appreciate the invitation to participate in this important discussion about energy revolutions in the Western Hemisphere.    My name is Kevin Book. I head the research team at Clearview Energy Partners, LLC, a Washington, DC-based independent research firm. We serve financial investors and corporate strategists, and we look at macro energy trends.    Here is a trend. It is hard to miss the dramatic shift in U.S. energy security during the last decade. In May 2005, net petroleum imports accounted for 59 percent of our consumption, according to EIA data.    This fact linked our economic fate to the sometimes unstable political circumstances of foreign producers and the insatiable energy appetites of emerging economies. As of February 2015, the most recent month for which robust EIA data are available, net imports represented only about 26 percent of our petroleum consumption.    Much of this can be explained by the incremental production from shale and other type formations. We also reduced petroleum consumption by about 1.7 million barrels per day, or 8.1 percent.    According to International Energy Agency data, Canadian crude oil and natural gas liquids production grew by 47 percent between the first quarter of 2005 and the first quarter of 2015, which was from about 3 million barrels per day to 4.3 million barrels per day.    Last June, the Canadian Association of Petroleum Producers projected that production will rise to 6.4 million barrels per day by 2030. Although to be fair, that forecast preceded the recent price collapse.    In Mexico, where the last decade brought a bruising 29 percent production decline, constitutional reforms have ended the state oil company's 75-year monopoly. Pemex will retain 83 percent of Mexico's probable and possible reserves and 21 percent of prospective reserves.    But Mexico opened its first round of bidding for the remainder in December 2014. This week, bidding opened for the third of five first round tenders and the first onshore offering.    Brazil opened its oil and gas sector to foreign competition in 1997. In October 2006, a joint venture between Petrobras and private operators discovered Tupi, which is now called Lula, the first of Brazil's many promising pre-salt offshore finds.    In June 2010, Brazil amended its regulatory framework. The new regime gives state entities substantially greater control over the pre-salt fields. The first competitive auction in October 2013 attracted only one bid.    It remains to be seen whether, and to what extent, Brazil's tighter grip on the pre-salt might deter further foreign investment.    As the U.S. transitions out of an era of energy scarcity into an age of adequacy and, hopefully, abundance, we are likely to encounter new opportunities to contribute to the energy security of our regional neighbors.    For example, financial pressures forced Venezuela to pare back subsidized crude oil and products exports to Petrocaribe signatories.    The U.S. became a net petroleum products exporter in July 2011, which is if you look backwards 12 months an average as analysts are prone to do. Since then, average products exports to Petrocaribe member countries rose about 14 percent from 194,000 barrels per day in July 2011 to 221,000 barrels per day in February 2015.    U.S. exporters aren't likely to offer the same financing terms that Venezuela does. But U.S.-refined products can provide Caribbean importers with volumes to cover supply shortfalls.    Two U.S. policy changes--liberalizing crude oil exports and approving the Keystone XL Pipeline and any other southbound conduit out of the oil sands could contribute so similar cover for Petrocaribe's crude importers. U.S. natural gas provides another opportunity.    EIA's reference case for natural gas in this year's annual energy outlook projects net exports of a little less than half of 1 billion cubic feet per day in 2017, rising to almost 6 billion cubic feet per day by 2040.    Pipeline exports to Mexico appear likely to continue growing and LNG exports from the lower 48 have potential to enhance energy security throughout the Western Hemisphere. Liquefied gas has to be regasified to be used and the high total costs of onshore facilities may be out of reach for many nations, especially in the Caribbean.    Floating storage and regasification units provide a possible alternative at lower capital cost and with faster construction times, albeit with higher operating costs.    Completion of an offshore facility in Colombia will bring Latin American floating regas capacity to more than 2.8 BCF a day, most of it in Brazil.    Finally, Latin American electrification provides another opportunity. The IEA estimated that approximately 23 million people in Latin America lacked access to electricity in 2012.    My written testimony suggests that countries that cannot harness endogenous hydroelectric resources may short of fossil fuel baseload generation. Many of these countries do not rely primarily on natural gas generation.    With outside financing including facilities outlined in a bill that was passed by the House last year--the Electrify Africa Act of 2014--a number of them could theoretically operate new gas-fired turbines fueled by water-borne LNG imports.    The data on Latin America point to energy transportation challenges, in addition to generation capacity deficits. Simply put, the region needs pipelines and transmission lines, too.    That said, Latin America gets plenty of sunlight, creating an opportunity for distributive solar photovoltaic generation to supplement regions where economic development, population density, and/or topography might make the build-out of pipes and wires impractical or unfeasible.    Mr. Chairman, this concludes my prepared testimony. I will look forward to responding to any questions you might have at the appropriate time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Book, and the Chair will recognize Mr. Webster for 5 minutes.</t>
   </si>
   <si>
-    <t>Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you very much, Chairman Duncan, Ranking Member Sires and distinguished members of the committee.    I appreciate the opportunity to testify before you today on the immense changes in the energy market, its landscape, its impacts on the Western Hemisphere and the importance of crude exports in continuing this change.    I am Jamie Webster and I appear before you today in my capacity as senior director at IHS where I lead the company's oil markets practice.    In that role, I travel regularly, not just nationally in the United States but also internationally. I also attend the OPEC meetings and was at the OPEC meeting on Thanksgiving when OPEC took the historic role--the historic stance of deciding to stand down in the face of growing U.S. production. This provides me a unique view in terms of what is going on not just in energy today but where it may go in the future.    Today, I want to address a few issues. One, the recent changes that we have seen in the global oil market, North America's critical place in it and what it means for both energy security and energy independence.    I will address the crude export issue and market-related issues as they relate to Keystone XL, and given I am just returning from Mexico last night, a brief update on where I see the energy reforms there.    The catalyst for the oil price decline that began in June of last year was the restart of Libya production. But what really supported it underneath that was the huge growth that we saw in U.S. production from 5.6 million barrels a day to 9.2 million barrels a day here in the United States.    OPEC's decision on Thanksgiving was really about its recognition that it could not compete in terms of these volumes that were coming online incessantly, and its decision was really one to focus on volume since it could no longer focus on price.    This underscores a serious shift that you are seeing in the market that we have not seen since the beginning of the 1970s when we shifted from the power of the Texas Railroad Commission to OPEC.    The market balancer, as us market analysts call it, is that entity that is able to bring production on and offline relatively quickly to handle changes in demand.    The boom in U.S. production actually has the potential to, again, allow a shift in this market balancer, and it is not just about the volumes but it is about the character of those volumes and the scope of those volumes.    One, it is the time scale. U.S. production can come online in 4 months versus conventional production that can take years to be planned, financed, and allowed online. The other is the decline rates.    U.S. production brings oil out of the ground so quickly that it actually brings the decline rate down very, very fast, which essentially has the impact of being able to slow U.S. production by slowing down on investment.    This shift from OPEC to the potential for the first time, perhaps, to a market-driven oil-based economy by shale is far from certain and it is far from complete. One of the key policy changes that would actually help to continue this drive is actually allowing U.S. exports.    Energy flows out of the United States and the growth in U.S. production on oil has already shifted the world dramatically. Nigeria used to export 1.1 million barrels a day to the United States. It is now essentially zero and we are providing large portions of their refined products.    Additionally, Mexico is taking increasing amounts of natural gas from the United States in order to support its economy both on the industrial side and electric side.    LNG soon will be allowing our natural gas to reach parts around the world and we have also go an increased tie with Canada. While we are continue to receive increased volumes from Canada, we are now exporting about 490,000 barrels a day up to Canada. This is up from 30,000 barrels a day in 2010.    This tight interconnection between the countries extends from power lines to rail lines to pipelines. The Keystone Pipeline can help to economically move oil from Canada down to refiners that are ready to take it.    Our view is very much that this is a useful and helpful pipeline. While the slowdown in oil prices has impacted Canada, over the next several years it is going to be bringing on another 800,000 barrels a day of new production. The obvious home for this is in the United States Gulf system.    The decision on Keystone is really a decision between importing oil from our near neighbor, Canada--our largest trading--or Venezuela, whose hostility to the United States is manifest.    The competitive oils between these two countries has about the same carbon footprint. But that is about the only thing that is similar between Canada and Venezuela.    The U.S. liberal trade policy on natural gas, coal, refined products, and processed condensate also needs to extend to oil.    Eliminating this is even more important when prices are low, as producers are in a much more difficult position in order to continue this production going forward. Additionally, removing this ban would actually help to bring down gasoline prices in the United States because the gasoline price in the United States is largely set by the global marker Brent, and so by pushing more volumes into the global market we will actually bring prices down on--leaving everything equal.    This brings me to Mexico. This country is eager to extend its imports of U.S. natural gas to also include oil. While there have been discussions about being able to execute oil swaps with Mexico, in reality there are a number of commercial hurdles that must be surmounted in order for this to occur.    The easier thing would be to allow crude oil exports so that this can be done on a single transaction rather than having to get at complex transactions to get around the current and outdated policy that currently exists.    Right now, Mexico, as Kevin mentioned, is undergoing a huge renaissance and a huge change in its energy reform, which is allowing a lot of opportunities for U.S. companies to participate, and I know they look forward to increased working with U.S. companies in the future.    Thank you very much for being here.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman. Great comments. We are going to come back to some of that.    Mr. Martin, whose parents are from South Carolina, a Citadel graduate, recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Martin. Oh, boy. Thank you, Mr. Chairman. Good afternoon.    Chairman Duncan, Ranking Member Sires, it is a delight and pleasure to be here. Flew in on a red-eye so I may be over-caffeinated, so bear with me if I blow through this too quickly.</t>
   </si>
   <si>
@@ -290,9 +272,6 @@
   </si>
   <si>
     <t>412525</t>
-  </si>
-  <si>
-    <t>Ted S. Yoho</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    I appreciate you all being here and I share the chairman and ranking member's goal and my vision is to make North America energy secure, energy independent in this region in the Western Hemisphere, to bring stability to the fuel prices.    You know, we have seen the volatility and we saw a lot in the 2004-2008 area when it was just going up and I was paying $5 a gallon for diesel for my Ford Excursion. Luckily, it got 22 miles to the gallon.    But we saw that fluctuation, and when the fluctuation was there it was just--you know, it disrupts the economy, from the guy out there planting corn to the, you know, the cosmetics on the aisle that people buy. It affected everything--pharmaceuticals. And so there is no reason, with our natural resources--correct me if I am wrong--that we should be importing oil from anybody outside of the Western Hemisphere.    Would you agree with that? Is there a need to with the natural resources here?</t>
@@ -853,11 +832,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -877,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -905,11 +880,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -929,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -957,11 +928,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -981,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1009,11 +976,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1033,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1061,11 +1024,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1085,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1113,11 +1072,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1137,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1163,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1189,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1217,11 +1168,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1241,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1269,11 +1216,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1293,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1321,11 +1264,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1345,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1373,11 +1312,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1397,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1425,11 +1360,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1449,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1477,11 +1408,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1501,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1529,11 +1456,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1553,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1581,11 +1504,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1605,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1633,11 +1552,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1657,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1685,11 +1600,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1709,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1737,11 +1648,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1761,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1789,11 +1696,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1813,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1841,11 +1744,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1865,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1893,11 +1792,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1917,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1945,11 +1840,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1969,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1997,11 +1888,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2021,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2049,11 +1936,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2073,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2099,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2125,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2151,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2177,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2203,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2229,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2255,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2281,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2307,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2333,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2359,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2385,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2411,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2437,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2463,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2489,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2515,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2541,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2567,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2593,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2619,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2645,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2673,11 +2512,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2697,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2723,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2749,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2775,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2801,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2827,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2853,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2879,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2905,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2931,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2957,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2983,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3009,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3035,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3061,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3087,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3115,11 +2920,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3139,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3165,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3191,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3217,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3243,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3269,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3295,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3321,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3347,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3375,11 +3160,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3399,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3427,11 +3208,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3451,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3479,11 +3256,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3503,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3531,11 +3304,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3555,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3583,11 +3352,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3607,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3635,11 +3400,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3659,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3687,11 +3448,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3711,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3739,11 +3496,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3763,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3791,11 +3544,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3815,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3841,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3869,11 +3616,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3893,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3921,11 +3664,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3945,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3973,11 +3712,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3997,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4023,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4049,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4077,11 +3808,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. I would now like to recognize myself for an opening statement.    The Western Hemisphere is home to an abundance of natural resources, including nearly a third of the world's oil reserves. With their own U.S. supplies of oil, natural gas and shale gas resources, the capacity to export liquified and compressed natural gas and the option of offshore drilling in the Atlantic, we have many reasons to deepen our energy engagement in the region.    Such action would spur economic growth and energy security while reducing energy costs, which will go a long ways toward building a more stable and prosperous hemisphere. Currently, our top crude oil imports come from Canada and Mexico.    Yet, the Obama administration's policies, while seeking to appease dictators in Cuba, have refused to take common sense approaches with Canada and Mexico.    The Keystone Pipeline decision remains mired in White House delaying tactics and State Department bureaucracy while the U.S. continues to unfairly prohibit crude oil exports to Mexico, and it is unlike our treatment toward Canada.    So earlier this year, President Obama used just the third veto of his presidency to stop House- and Senate-passed authorizing legislation to finally begin construction of the pipeline, even saying at the time that the pipeline wouldn't actually create that many jobs for the U.S.    Approval of the Keystone XL Pipeline would not only inject over $7 billion in private investment into our economy, it would also create thousands of good-paying jobs for the American people. Energy security is a segue to job creation.    Keystone XL also represents an important piece of ensuring our national security interest. Reducing our dependence on energy from unstable parts of the world and from regimes hostile to the U.S. interests has long been a crucial element in protecting our broader national security interests.    Canada and the United States enjoy a very close bilateral relationship with robust commercial ties. Our two countries enjoy the world's largest bilateral trade relationship, translating into over $1 billion crossing our shared northern border each day.    Moreover, Canada is the world's fifth largest petroleum producer and its reserves are believed to be third largest in the world only after those of Saudi Arabia and Venezuela.    Canada is already the United States' largest supplier of energy, and approval of the Keystone Pipeline from Canada to refineries in the Midwest and the Gulf Coast would translate into approximately 1 million additional barrels of oil per day, along with tens of thousands of high quality good-paying U.S. jobs.    It is telling when you remember that President Obama managed to force Obamacare onto the America people in just over 400 days, yet it has been over 2,000 days since the application for Keystone XL Pipeline from Canada was submitted to the State Department, and the administration continues to stall on approving or disapproving the project.    On this question I believe our treatment of our neighbor to the north, one of our best and largest trading partners and on so many other issues, is shameful.    So because of this, as chairman of the Subcommittee on the Western Hemisphere of the House Foreign Affairs Committee, I convened the first meeting of this panel earlier this year to host senior leaders from several Caribbean countries in conjunction with the administration's Caribbean Energy Security Summit.    These CARICOM countries suffer from some of the most expensive energy prices in the world, hampering the growth of their island economies.    Isn't it time that we figure out innovative and cost-effective ways to export our recently discovered energy abundance to help these small countries once and for all get off their dependence on subsidized energy from Venezuela?    Not only does this make economic sense, but it also might actually help the U.S. geopolitically when the votes are cast at the U.N. and the OAS.    Today, the Western Hemisphere has some amazing opportunities for deeper U.S. engagement with Mexico's energy sector reforms, energy revolutions in Argentina, Brazil, Colombia, Peru, offshore exploration activities by Caribbean countries, and potentially new resources in the Arctic.    In Mexico, the promise of opening Pemex to foreign investment will not only potentially benefit U.S. companies but will go a long way in improving the efficiency of Pemex while stabilizing, indeed, increasing Mexico's stalled oil production.    This will lead to a more prosperous Mexico and that, unquestionably, is in the national interest of the United States.    The imminent approval of the United States Commerce Department to allow Mexico to swap up to 100,000 barrels of heavy crude for similar amounts of lighter U.S. oil could yet be a milestone toward eventual loosening of the four-decade-old ban on U.S. oil exports. This is truly a win-win.    In South America, despite simmering domestic political challenges with the vast offshore pre-salt oil reserves in Brazil and with Argentina sitting on the world's second largest shale gas reserves in the Vaca Meurta, opportunities for U.S. engagement abound.    The discoveries made in the pre-salt are among the world's most important in the past decade as the pre-salt province comprises large accumulations of excellent quality high commercial value light oil.    With elections set for this fall, it remains to be seen what the investment climate will look like in a post-Kirchner regime in Argentina. The world will be watching.    This hearing will explore how we can grow and enhance our existing partnerships with countries in this hemisphere, and preserve U.S. energy security, increase investment opportunities for U.S. companies and high-paying jobs for the American people.    Challenges for U.S. business investment remain in the region, but it is my hope that through hearings like this we will determine ways in which the U.S. can better engage on energy issues with our neighbors in the hemisphere.    Just returning from the Summit of the Americas, I really started thinking about hemispheric energy independence. If we think about some of the things I have talked about, whether it is Keystone Pipeline oil to U.S. refineries, whether it is the abundance of natural gas that we are finding in the United States, whether it is shale oil in the Bakken and our ability to extract that, possible energy exports of oil to the Caribbean nations limiting or effectively ending Petrocaribe's influence in the region, natural gas exports to Mexico, natural gas LNG and CNG through Central America and all throughout the hemisphere, working with our partners in Colombia and allies in Colombia and Brazil, expansions of possibly energy in Argentina, and what Peru and Chile are wanting to do, just so many different things that could happen, especially if political winds shift in Venezuela and that Venezuelan oil becomes more productive--oil fields become more productive and opportunity to utilize that oil in this hemisphere.    If you take every piece of that equation that I talked about--and there are others, I am sure, that we will hear from the panelists today--if you factor all those in to the Western Hemisphere and think about it in terms of hemispheric energy independence, then we negate a lot of the geopolitical concerns that are happening in other parts of the world.    So I look forward to today's hearing as we delve into this and I now turn to Ranking Member Sires for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you to our witnesses for being here this afternoon.    Today's hearing looks at both the opportunities and challenges enhancing our energy cooperation within the Western Hemisphere.    I believe integrating our energy interests in the region have been ignored for far too long. That is why I am encouraged to see the administration's recent efforts to deepen energy cooperation within the hemisphere.    The administration hosted the White House Caribbean Energy Security Summit in January and launched the Caribbean Energy Security Initiative to facilitate an energy transition for the islands that have been far too dependent on Venezuela's shaky energy sector for their needs.    While we continue to focus energy policy on the Middle East, taking a look at our own back yard shows the opportunity that exists right next door.    We get about half of our oil and petroleum from the Western Hemisphere, half of which is from Canada. Canada is the single largest foreign supplier of petroleum and natural gas to the United States, and after Saudi Arabia, Mexico is the United States' third largest supplier of petroleum.    Venezuela is home to 88 percent of the region's proven oil reserves. In regards to nontraditional sources of energy, Brazil is the world's second larger producer of ethanol after the United States.    In countries like Venezuela, Bolivia, Ecuador and Argentina, the troubling trends of the nationalization of private industry has become the norm rather than the exception.    Moreover, the region's trade relationships and increasing presence of anti-democratic actors such as Russia, Iran and particularly China, whose self-interests are counter to the strategic concerns of the United States, should not be taken lightly.    In January, China pledged $250 billion in investments in Latin America over the next 10 years, seeking to boost their influence in the resource-rich region.    The United States cannot fall behind, as the Western Hemisphere plays a critical role in our energy security. Specifically, it is clear that maintaining and strengthening our energy relationship with Canada and Mexico is in the national interests of the United States.    That is why I believe the proposed Keystone XL Pipeline and the Transboundary Hydrocarbon Agreement with Mexico are in the national interests of the United States. I am sensitive to the environment and the concerns associated with the development of the Keystone Pipeline project.    But the conversation has stagnated. The concerned parties need to avoid further delays of a constructive dialogue and chart a path forward.    This is true especially in light of declining foreign oil supplies from Mexico and Venezuela. Our national security requires that energy policy be a central component of our foreign policy.    Furthermore, we should build upon and expand our energy diplomacy efforts and mitigate the Caribbean's dependence on subsidized Venezuela oil and support the economic growth of the region in ways that are both relevant and practical to the needs of everyday people.    No one single project or initiative is a cure-all for energy security needs, and no proposal will satisfy everyone's needs or alleviate every doubt. But we must continue to work with our neighbors to develop a beneficial energy policy for the region.    I look forward to the hearing--to hearing from our panelists on how we can address these critical issues.    Thank you.</t>
   </si>
   <si>
@@ -73,24 +88,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Knapp</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knapp. Good afternoon, Chairman Duncan, Ranking Member Sires and esteemed member of the House Foreign Affairs' Subcommittee on the Western Hemisphere.    It is my great pleasure and high honor to be here today and I thank each of you both for your continued dedicated service as Members of Congress and for the opportunity to appear before you today.    For the record, I am James H. Knapp, professor in the Department of Earth and Ocean Sciences in the School of the Earth, Ocean and Environment at the University of South Carolina, and I currently serve as chair of the faculty senate at the University of South Carolina, Columbia campus. I will be summarizing my written testimony in these opening comments.    I am also taking the liberty to introduce some graphics here which, hopefully, will supplement the comments I will make.    By way of background, I was born and raised in California and have lived in six and travelled to 49 states and through my profession as an earth scientist have worked in or visited more than 40 countries, many of those in the Western Hemisphere.    I hold a Bachelor of Science degree with distinction in geological sciences from Stanford University and a Ph.D. in geology from the Massachusetts Institute of Technology, and from 1988 to 1991 I worked with Shell Oil where I participated directly in oil and gas exploration in the Gulf of Mexico.    For more than 20 years since then, my research team and I have carried out both fundamental and applied research in earth sciences including the design, acquisition, processing and interpretation of seismic surveys both onshore and offshore and many of my former students are now gainfully employed in the energy industry.    Access to energy is and will for future generations continue to be an essential foundation upon which modern society operates.    On a personal level, one need only experience a prolonged power outage to be poignantly reminded of the ways in which we on a daily basis depend on energy to illuminate, heat and cool our homes and businesses, preserve and prepare our food, and of critical importance in this digital age, power our numerous IT devices.    As many have come to appreciate in recent years, we simply cannot turn off the power switch overnight regardless of the perceived societal imperatives.    Safe, efficient and environmentally responsible development of energy resources is critical for the long-term energy security of this country and the Western Hemisphere.    In all of the above energy strategy, which includes continued exploration for and development of conventional and unconventional hydrocarbon resources, as we develop economically viable technologies for alternative and renewable energy resources is clearly the best path forward. Much of the future promise of renewable and alternative energy sources awaits the capacity for efficient storage through research and development.    The title of this hearing is most appropriate. As many will know, for the better part of the last decade we have witnessed a global energy revolution led by the United States, which few if any could have predicted.    Harnessing the oil and gas potential of shale reservoirs through American technological innovation has practically doubled the estimated volume of undiscovered technically recoverable oil resources in the United States.    The most recent estimates from the energy information administration for proven crude oil reserves in the Western Hemisphere amount to approximately 550 billion barrels of oil equivalent with well more than half of those in Venezuela.    The countries of the Western Hemisphere combined represent approximately one-third of the proven global reserves. Clearly, the major players in terms of conventional production have been and will continue to be the United States and Canada with growing contributions from Brazil, Mexico and Argentina.    As seen in the figure on the screen, shale oil and shale gas potential is abundant throughout the Western Hemisphere from the North Slope of Alaska to the tip of Tierra del Fuego, and the offshore potential of such unconventional resources is yet to be evaluated in any significant way. Note that these are all onshore shale gas and shale oil plays.    The presence of this resource potential represents an opportunity to engage our hemispheric neighbors through both the public and the private sector.    Methane hydrates, or deposits of natural gas frozen into sedimentary deposits, represent a significant future resource potential.    Recent estimates from the Bureau of Ocean Energy Management suggest that more than 20,000 trillion cubic feet of gas, or as much as 35 times the inventory of conventional gas resources on the entire U.S. outer continental shelf, are present on the Atlantic margin alone, as shown in this figure.    A similar reserve potential has been estimated for the U.S. waters of the Gulf of Mexico. We need look no further than the Atlantic shelf of the U.S. for other energy opportunities.    The Bureau of Energy--Ocean Energy Management is charged with periodic evaluation of the energy and mineral resource potential of the outer continental shelf.    Their most recent estimate in 2011 of undiscovered technically recoverable resources for the Atlantic OCS was 8.87 billion barrels of oil equivalent revised only a year ago up to 11.4 billion barrels of oil equivalent without any new data.    This is simply reevaluation of the existing data. Too often such reserve estimates are dismissed as unworthy of the investment required to produce them or the anticipated environmental disruption involved.    However, such volumes represent as much as a tenth of the combined estimated petroleum resource base of the United States.    In addition, as much as 80 percent of the Atlantic OCS territory currently under consideration in the draft proposed plan of the Bureau of Ocean Energy Management has never been evaluated with commercial seismic surveys. Only the shelf portions of the area under consideration have ever been surveyed.    So if we compare this with the entire remainder of the Atlantic Basin, essentially the entire Atlantic Basin is currently under exploration for oil and gas in offshore areas with the conspicuous exception of the Atlantic Margin and the eastern Gulf of Mexico of the United States.    In conclusion, I believe the U.S. can and must play a leading role in promoting energy security for our own citizens and for the hemisphere at large. In most cases, the biggest opportunities appear to be here close to home.    New opportunities exist to bring U.S. deepwater technology and experience to Mexico and the Gulf of Mexico. Additional steps should be taken to deepen our engagement with Canada by completing the Keystone XL Pipeline, bringing crude petroleum to excess refining capacity in the Gulf Coast region and removing the ban on crude oil exports from the U.S. helping to bring reliable energy to our neighbors from a stable economic and political base.    I yield the rest of my time. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Dr. Knapp, thank you, and I felt like I was in a classroom there with a slide presentation. But very informative.    Mr. Book.</t>
   </si>
   <si>
+    <t>Book</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Book. Thank you, Chairman Duncan, Ranking Member Sires and distinguished members of this committee.    Good afternoon, and I appreciate the invitation to participate in this important discussion about energy revolutions in the Western Hemisphere.    My name is Kevin Book. I head the research team at Clearview Energy Partners, LLC, a Washington, DC-based independent research firm. We serve financial investors and corporate strategists, and we look at macro energy trends.    Here is a trend. It is hard to miss the dramatic shift in U.S. energy security during the last decade. In May 2005, net petroleum imports accounted for 59 percent of our consumption, according to EIA data.    This fact linked our economic fate to the sometimes unstable political circumstances of foreign producers and the insatiable energy appetites of emerging economies. As of February 2015, the most recent month for which robust EIA data are available, net imports represented only about 26 percent of our petroleum consumption.    Much of this can be explained by the incremental production from shale and other type formations. We also reduced petroleum consumption by about 1.7 million barrels per day, or 8.1 percent.    According to International Energy Agency data, Canadian crude oil and natural gas liquids production grew by 47 percent between the first quarter of 2005 and the first quarter of 2015, which was from about 3 million barrels per day to 4.3 million barrels per day.    Last June, the Canadian Association of Petroleum Producers projected that production will rise to 6.4 million barrels per day by 2030. Although to be fair, that forecast preceded the recent price collapse.    In Mexico, where the last decade brought a bruising 29 percent production decline, constitutional reforms have ended the state oil company's 75-year monopoly. Pemex will retain 83 percent of Mexico's probable and possible reserves and 21 percent of prospective reserves.    But Mexico opened its first round of bidding for the remainder in December 2014. This week, bidding opened for the third of five first round tenders and the first onshore offering.    Brazil opened its oil and gas sector to foreign competition in 1997. In October 2006, a joint venture between Petrobras and private operators discovered Tupi, which is now called Lula, the first of Brazil's many promising pre-salt offshore finds.    In June 2010, Brazil amended its regulatory framework. The new regime gives state entities substantially greater control over the pre-salt fields. The first competitive auction in October 2013 attracted only one bid.    It remains to be seen whether, and to what extent, Brazil's tighter grip on the pre-salt might deter further foreign investment.    As the U.S. transitions out of an era of energy scarcity into an age of adequacy and, hopefully, abundance, we are likely to encounter new opportunities to contribute to the energy security of our regional neighbors.    For example, financial pressures forced Venezuela to pare back subsidized crude oil and products exports to Petrocaribe signatories.    The U.S. became a net petroleum products exporter in July 2011, which is if you look backwards 12 months an average as analysts are prone to do. Since then, average products exports to Petrocaribe member countries rose about 14 percent from 194,000 barrels per day in July 2011 to 221,000 barrels per day in February 2015.    U.S. exporters aren't likely to offer the same financing terms that Venezuela does. But U.S.-refined products can provide Caribbean importers with volumes to cover supply shortfalls.    Two U.S. policy changes--liberalizing crude oil exports and approving the Keystone XL Pipeline and any other southbound conduit out of the oil sands could contribute so similar cover for Petrocaribe's crude importers. U.S. natural gas provides another opportunity.    EIA's reference case for natural gas in this year's annual energy outlook projects net exports of a little less than half of 1 billion cubic feet per day in 2017, rising to almost 6 billion cubic feet per day by 2040.    Pipeline exports to Mexico appear likely to continue growing and LNG exports from the lower 48 have potential to enhance energy security throughout the Western Hemisphere. Liquefied gas has to be regasified to be used and the high total costs of onshore facilities may be out of reach for many nations, especially in the Caribbean.    Floating storage and regasification units provide a possible alternative at lower capital cost and with faster construction times, albeit with higher operating costs.    Completion of an offshore facility in Colombia will bring Latin American floating regas capacity to more than 2.8 BCF a day, most of it in Brazil.    Finally, Latin American electrification provides another opportunity. The IEA estimated that approximately 23 million people in Latin America lacked access to electricity in 2012.    My written testimony suggests that countries that cannot harness endogenous hydroelectric resources may short of fossil fuel baseload generation. Many of these countries do not rely primarily on natural gas generation.    With outside financing including facilities outlined in a bill that was passed by the House last year--the Electrify Africa Act of 2014--a number of them could theoretically operate new gas-fired turbines fueled by water-borne LNG imports.    The data on Latin America point to energy transportation challenges, in addition to generation capacity deficits. Simply put, the region needs pipelines and transmission lines, too.    That said, Latin America gets plenty of sunlight, creating an opportunity for distributive solar photovoltaic generation to supplement regions where economic development, population density, and/or topography might make the build-out of pipes and wires impractical or unfeasible.    Mr. Chairman, this concludes my prepared testimony. I will look forward to responding to any questions you might have at the appropriate time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Book, and the Chair will recognize Mr. Webster for 5 minutes.</t>
   </si>
   <si>
+    <t>Webster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you very much, Chairman Duncan, Ranking Member Sires and distinguished members of the committee.    I appreciate the opportunity to testify before you today on the immense changes in the energy market, its landscape, its impacts on the Western Hemisphere and the importance of crude exports in continuing this change.    I am Jamie Webster and I appear before you today in my capacity as senior director at IHS where I lead the company's oil markets practice.    In that role, I travel regularly, not just nationally in the United States but also internationally. I also attend the OPEC meetings and was at the OPEC meeting on Thanksgiving when OPEC took the historic role--the historic stance of deciding to stand down in the face of growing U.S. production. This provides me a unique view in terms of what is going on not just in energy today but where it may go in the future.    Today, I want to address a few issues. One, the recent changes that we have seen in the global oil market, North America's critical place in it and what it means for both energy security and energy independence.    I will address the crude export issue and market-related issues as they relate to Keystone XL, and given I am just returning from Mexico last night, a brief update on where I see the energy reforms there.    The catalyst for the oil price decline that began in June of last year was the restart of Libya production. But what really supported it underneath that was the huge growth that we saw in U.S. production from 5.6 million barrels a day to 9.2 million barrels a day here in the United States.    OPEC's decision on Thanksgiving was really about its recognition that it could not compete in terms of these volumes that were coming online incessantly, and its decision was really one to focus on volume since it could no longer focus on price.    This underscores a serious shift that you are seeing in the market that we have not seen since the beginning of the 1970s when we shifted from the power of the Texas Railroad Commission to OPEC.    The market balancer, as us market analysts call it, is that entity that is able to bring production on and offline relatively quickly to handle changes in demand.    The boom in U.S. production actually has the potential to, again, allow a shift in this market balancer, and it is not just about the volumes but it is about the character of those volumes and the scope of those volumes.    One, it is the time scale. U.S. production can come online in 4 months versus conventional production that can take years to be planned, financed, and allowed online. The other is the decline rates.    U.S. production brings oil out of the ground so quickly that it actually brings the decline rate down very, very fast, which essentially has the impact of being able to slow U.S. production by slowing down on investment.    This shift from OPEC to the potential for the first time, perhaps, to a market-driven oil-based economy by shale is far from certain and it is far from complete. One of the key policy changes that would actually help to continue this drive is actually allowing U.S. exports.    Energy flows out of the United States and the growth in U.S. production on oil has already shifted the world dramatically. Nigeria used to export 1.1 million barrels a day to the United States. It is now essentially zero and we are providing large portions of their refined products.    Additionally, Mexico is taking increasing amounts of natural gas from the United States in order to support its economy both on the industrial side and electric side.    LNG soon will be allowing our natural gas to reach parts around the world and we have also go an increased tie with Canada. While we are continue to receive increased volumes from Canada, we are now exporting about 490,000 barrels a day up to Canada. This is up from 30,000 barrels a day in 2010.    This tight interconnection between the countries extends from power lines to rail lines to pipelines. The Keystone Pipeline can help to economically move oil from Canada down to refiners that are ready to take it.    Our view is very much that this is a useful and helpful pipeline. While the slowdown in oil prices has impacted Canada, over the next several years it is going to be bringing on another 800,000 barrels a day of new production. The obvious home for this is in the United States Gulf system.    The decision on Keystone is really a decision between importing oil from our near neighbor, Canada--our largest trading--or Venezuela, whose hostility to the United States is manifest.    The competitive oils between these two countries has about the same carbon footprint. But that is about the only thing that is similar between Canada and Venezuela.    The U.S. liberal trade policy on natural gas, coal, refined products, and processed condensate also needs to extend to oil.    Eliminating this is even more important when prices are low, as producers are in a much more difficult position in order to continue this production going forward. Additionally, removing this ban would actually help to bring down gasoline prices in the United States because the gasoline price in the United States is largely set by the global marker Brent, and so by pushing more volumes into the global market we will actually bring prices down on--leaving everything equal.    This brings me to Mexico. This country is eager to extend its imports of U.S. natural gas to also include oil. While there have been discussions about being able to execute oil swaps with Mexico, in reality there are a number of commercial hurdles that must be surmounted in order for this to occur.    The easier thing would be to allow crude oil exports so that this can be done on a single transaction rather than having to get at complex transactions to get around the current and outdated policy that currently exists.    Right now, Mexico, as Kevin mentioned, is undergoing a huge renaissance and a huge change in its energy reform, which is allowing a lot of opportunities for U.S. companies to participate, and I know they look forward to increased working with U.S. companies in the future.    Thank you very much for being here.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman. Great comments. We are going to come back to some of that.    Mr. Martin, whose parents are from South Carolina, a Citadel graduate, recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Martin. Oh, boy. Thank you, Mr. Chairman. Good afternoon.    Chairman Duncan, Ranking Member Sires, it is a delight and pleasure to be here. Flew in on a red-eye so I may be over-caffeinated, so bear with me if I blow through this too quickly.</t>
   </si>
   <si>
@@ -272,6 +299,12 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    I appreciate you all being here and I share the chairman and ranking member's goal and my vision is to make North America energy secure, energy independent in this region in the Western Hemisphere, to bring stability to the fuel prices.    You know, we have seen the volatility and we saw a lot in the 2004-2008 area when it was just going up and I was paying $5 a gallon for diesel for my Ford Excursion. Luckily, it got 22 miles to the gallon.    But we saw that fluctuation, and when the fluctuation was there it was just--you know, it disrupts the economy, from the guy out there planting corn to the, you know, the cosmetics on the aisle that people buy. It affected everything--pharmaceuticals. And so there is no reason, with our natural resources--correct me if I am wrong--that we should be importing oil from anybody outside of the Western Hemisphere.    Would you agree with that? Is there a need to with the natural resources here?</t>
@@ -782,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,3005 +845,3515 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>95</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>95</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s">
+        <v>95</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>95</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G88" t="s">
+        <v>95</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94609.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -299,6 +308,9 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Yoho</t>
@@ -815,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +835,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,3512 +860,3772 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>36</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
